--- a/group_comparison/five_cohort_sample_comparison_dashboard_default_colors.xlsx
+++ b/group_comparison/five_cohort_sample_comparison_dashboard_default_colors.xlsx
@@ -198,7 +198,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="10715625" cy="8239125"/>
+    <ext cx="10715625" cy="8648700"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -228,7 +228,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="10772775" cy="8534400"/>
+    <ext cx="10772775" cy="8648700"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -258,7 +258,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="8153400" cy="6162675"/>
+    <ext cx="8153400" cy="6457950"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -288,7 +288,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="8029575" cy="6162675"/>
+    <ext cx="8029575" cy="6457950"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -318,7 +318,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="8029575" cy="6162675"/>
+    <ext cx="8029575" cy="6457950"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -348,7 +348,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="8153400" cy="6162675"/>
+    <ext cx="8153400" cy="6457950"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -378,7 +378,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="8153400" cy="6162675"/>
+    <ext cx="8153400" cy="6457950"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -408,7 +408,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="8029575" cy="6162675"/>
+    <ext cx="8029575" cy="6457950"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -438,7 +438,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="8029575" cy="6162675"/>
+    <ext cx="8029575" cy="6457950"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -468,7 +468,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="8277225" cy="6162675"/>
+    <ext cx="8277225" cy="6457950"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -498,7 +498,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="8277225" cy="6162675"/>
+    <ext cx="8277225" cy="6457950"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -528,7 +528,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="10944225" cy="8239125"/>
+    <ext cx="10944225" cy="8648700"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -558,7 +558,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="8382000" cy="6162675"/>
+    <ext cx="8382000" cy="6457950"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -588,7 +588,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="8153400" cy="6162675"/>
+    <ext cx="8153400" cy="6457950"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -618,7 +618,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="8153400" cy="6162675"/>
+    <ext cx="8153400" cy="6457950"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -648,7 +648,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="8153400" cy="6162675"/>
+    <ext cx="8153400" cy="6457950"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -678,7 +678,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="8591550" cy="6686550"/>
+    <ext cx="8591550" cy="6991350"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -708,7 +708,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="8601075" cy="6686550"/>
+    <ext cx="8601075" cy="6991350"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -738,7 +738,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="8153400" cy="6686550"/>
+    <ext cx="8153400" cy="6991350"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -768,7 +768,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="11020425" cy="8239125"/>
+    <ext cx="11020425" cy="8648700"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -798,7 +798,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="11220450" cy="8239125"/>
+    <ext cx="11220450" cy="8648700"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -828,7 +828,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="10972800" cy="8239125"/>
+    <ext cx="10972800" cy="8648700"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -858,7 +858,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="10944225" cy="8239125"/>
+    <ext cx="10944225" cy="8648700"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -888,7 +888,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="10944225" cy="8239125"/>
+    <ext cx="10944225" cy="8648700"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -918,7 +918,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="11220450" cy="8239125"/>
+    <ext cx="11220450" cy="8648700"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -948,7 +948,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="11277600" cy="8239125"/>
+    <ext cx="11277600" cy="8648700"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>

--- a/group_comparison/five_cohort_sample_comparison_dashboard_default_colors.xlsx
+++ b/group_comparison/five_cohort_sample_comparison_dashboard_default_colors.xlsx
@@ -25,28 +25,51 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Run data output plot" sheetId="17" state="visible" r:id="rId17"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Run read count plot" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Starting active pores plot" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Flow cells per experiment plot" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Output per experiment plot" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Output per flow cell plot" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Platform QC active pores plot" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Platform-seq pore diff plot" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Platform-seq time diff plot" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Active pores vs. data output" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Active pores vs. read count" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Active pores vs. read N50" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Read N50 vs. data output" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Read N50 vs. data no line" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Read N50 vs. read count" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Read N50 vs. count no line" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pqc vs. starting active pores" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pqc vs. pore difference" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pore vs. time difference" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pore difference vs. run output" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N50 output pore diff" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N50 output starting pores" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Platform QC pores over time" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pore difference over time" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Run output over time" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Average active pores plot" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Active pore AUC plot" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Starting pore occupancy plot" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Average pore occupancy plot" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passed modal Q score plot" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Failed modal Q score plot" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Starting transloc speed plot" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Starting median Q score plot" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passed bases plot" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Failed bases plot" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Percentage passed bases plot" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Flow cells per experiment plot" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Output per experiment plot" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Output per flow cell plot" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Platform QC active pores plot" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Platform-seq pore diff plot" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Platform-seq time diff plot" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Active pores vs. data output" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Active pores vs. read count" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Active pores vs. read N50" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Read N50 vs. data output" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Read N50 vs. data no line" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Read N50 vs. read count" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Read N50 vs. count no line" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Start vs. avg active pores" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Start active pores vs. AUC" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg active pores vs. data" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Active pore AUC vs. data" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg pore occup. vs. data" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transloc. speed vs. Q score" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data output vs. Q score" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Start. pores vs. Q score" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Active pore AUC vs. Q score" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passed bases vs. Q score" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pqc vs. starting active pores" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pqc vs. pore difference" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pore vs. time difference" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pore difference vs. run output" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pore diff. vs. active pore AUC" sheetId="58" state="visible" r:id="rId58"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pore occup. vs. pore diff." sheetId="59" state="visible" r:id="rId59"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N50 output pore diff" sheetId="60" state="visible" r:id="rId60"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="N50 output starting pores" sheetId="61" state="visible" r:id="rId61"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Platform QC pores over time" sheetId="62" state="visible" r:id="rId62"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pore difference over time" sheetId="63" state="visible" r:id="rId63"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Run output over time" sheetId="64" state="visible" r:id="rId64"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -228,6 +251,126 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
+    <ext cx="10553700" cy="8648700"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="10887075" cy="8648700"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="10715625" cy="8648700"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="10944225" cy="8648700"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
     <ext cx="10772775" cy="8648700"/>
     <pic>
       <nvPicPr>
@@ -249,7 +392,7 @@
 </wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -258,7 +401,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="8153400" cy="6457950"/>
+    <ext cx="10944225" cy="8648700"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -279,7 +422,7 @@
 </wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -288,7 +431,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="8029575" cy="6457950"/>
+    <ext cx="10972800" cy="8648700"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -309,7 +452,7 @@
 </wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -318,7 +461,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="8029575" cy="6457950"/>
+    <ext cx="10944225" cy="8648700"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -339,7 +482,7 @@
 </wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -348,7 +491,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="8153400" cy="6457950"/>
+    <ext cx="10944225" cy="8648700"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -369,126 +512,6 @@
 </wsDr>
 </file>
 
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="8153400" cy="6457950"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="8029575" cy="6457950"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="8029575" cy="6457950"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="8277225" cy="6457950"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
 <file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
@@ -498,7 +521,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="8277225" cy="6457950"/>
+    <ext cx="11220450" cy="8648700"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -558,7 +581,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="8382000" cy="6457950"/>
+    <ext cx="11277600" cy="8648700"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -588,7 +611,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="8153400" cy="6457950"/>
+    <ext cx="10772775" cy="8648700"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -648,6 +671,66 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
+    <ext cx="8029575" cy="6457950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8029575" cy="6457950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
     <ext cx="8153400" cy="6457950"/>
     <pic>
       <nvPicPr>
@@ -669,7 +752,7 @@
 </wsDr>
 </file>
 
-<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing26.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -678,7 +761,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="8591550" cy="6991350"/>
+    <ext cx="8153400" cy="6457950"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -699,7 +782,7 @@
 </wsDr>
 </file>
 
-<file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing27.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -708,7 +791,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="8601075" cy="6991350"/>
+    <ext cx="8029575" cy="6457950"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -729,7 +812,7 @@
 </wsDr>
 </file>
 
-<file path=xl/drawings/drawing26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing28.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -738,7 +821,37 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="8153400" cy="6991350"/>
+    <ext cx="8029575" cy="6457950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing29.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8277225" cy="6457950"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -789,6 +902,306 @@
 </wsDr>
 </file>
 
+<file path=xl/drawings/drawing30.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8534400" cy="6457950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing31.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8153400" cy="6457950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing32.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8153400" cy="6457950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing33.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8162925" cy="6457950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing34.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8153400" cy="6457950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing35.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8029575" cy="6457950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing36.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8143875" cy="6457950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing37.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8029575" cy="6457950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing38.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8029575" cy="6457950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing39.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8277225" cy="6457950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
@@ -819,7 +1232,7 @@
 </wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing40.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -828,7 +1241,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="10972800" cy="8648700"/>
+    <ext cx="8277225" cy="6457950"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -849,7 +1262,367 @@
 </wsDr>
 </file>
 
+<file path=xl/drawings/drawing41.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8382000" cy="6457950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing42.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8153400" cy="6457950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing43.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8534400" cy="6457950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing44.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8420100" cy="6457950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing45.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8153400" cy="6457950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing46.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8153400" cy="6457950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing47.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8591550" cy="6991350"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing48.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8601075" cy="6991350"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing49.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8153400" cy="6991350"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="11220450" cy="8648700"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="11439525" cy="8648700"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="10887075" cy="8648700"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -879,66 +1652,6 @@
 </wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="10944225" cy="8648700"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="11220450" cy="8648700"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
@@ -948,7 +1661,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="11277600" cy="8648700"/>
+    <ext cx="10715625" cy="8648700"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -1258,7 +1971,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1324,7 +2037,7 @@
         <v>27.64</v>
       </c>
       <c r="E2" t="n">
-        <v>23.9325</v>
+        <v>23.932</v>
       </c>
       <c r="F2" t="n">
         <v>25.39</v>
@@ -1333,7 +2046,7 @@
         <v>21.73</v>
       </c>
       <c r="H2" t="n">
-        <v>2.99938743746119</v>
+        <v>2.923</v>
       </c>
     </row>
     <row r="3">
@@ -1352,7 +2065,7 @@
         <v>107.516</v>
       </c>
       <c r="E3" t="n">
-        <v>70.44674999999999</v>
+        <v>70.447</v>
       </c>
       <c r="F3" t="n">
         <v>69.072</v>
@@ -1361,7 +2074,7 @@
         <v>55.478</v>
       </c>
       <c r="H3" t="n">
-        <v>18.78713667400902</v>
+        <v>18.311</v>
       </c>
     </row>
     <row r="4">
@@ -1380,16 +2093,16 @@
         <v>10.23</v>
       </c>
       <c r="E4" t="n">
-        <v>6.9877</v>
+        <v>6.988</v>
       </c>
       <c r="F4" t="n">
-        <v>7.5235</v>
+        <v>7.524</v>
       </c>
       <c r="G4" t="n">
         <v>6.53</v>
       </c>
       <c r="H4" t="n">
-        <v>1.866095532614048</v>
+        <v>1.819</v>
       </c>
     </row>
     <row r="5">
@@ -1417,196 +2130,452 @@
         <v>6977</v>
       </c>
       <c r="H5" t="n">
-        <v>766.6779602524401</v>
+        <v>747.265</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Platform QC active pores</t>
+          <t>Average active pores</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C6" t="n">
-        <v>6544</v>
+        <v>1394.553</v>
       </c>
       <c r="D6" t="n">
-        <v>8379</v>
+        <v>3667.978</v>
       </c>
       <c r="E6" t="n">
-        <v>7450.333333333333</v>
+        <v>2474.564</v>
       </c>
       <c r="F6" t="n">
-        <v>7452</v>
+        <v>2386.724</v>
       </c>
       <c r="G6" t="n">
-        <v>7588</v>
+        <v>2404.043</v>
       </c>
       <c r="H6" t="n">
-        <v>497.7933808318467</v>
+        <v>592.8579999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Pore difference</t>
+          <t>Platform QC active pores</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>42</v>
+        <v>6544</v>
       </c>
       <c r="D7" t="n">
-        <v>725</v>
+        <v>8379</v>
       </c>
       <c r="E7" t="n">
-        <v>335.3333333333333</v>
+        <v>7450.333</v>
       </c>
       <c r="F7" t="n">
-        <v>268</v>
+        <v>7452</v>
       </c>
       <c r="G7" t="n">
-        <v>611</v>
+        <v>7588</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9539149918899</v>
+        <v>469.324</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Flow cells per experiment</t>
+          <t>Pore difference</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>725</v>
       </c>
       <c r="E8" t="n">
-        <v>1.111111111111111</v>
+        <v>335.333</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>268</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>611</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3233808333817773</v>
+        <v>222.459</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Flow cell output (Gb)</t>
+          <t>Flow cells per experiment</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" t="n">
-        <v>37.469</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>107.516</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>70.44674999999999</v>
+        <v>1.111</v>
       </c>
       <c r="F9" t="n">
-        <v>69.072</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>58.149</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>18.78713667400902</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Total experiment output (Gb)</t>
+          <t>Flow cell output (Gb)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" t="n">
         <v>37.469</v>
       </c>
       <c r="D10" t="n">
+        <v>107.516</v>
+      </c>
+      <c r="E10" t="n">
+        <v>70.447</v>
+      </c>
+      <c r="F10" t="n">
+        <v>69.072</v>
+      </c>
+      <c r="G10" t="n">
+        <v>58.149</v>
+      </c>
+      <c r="H10" t="n">
+        <v>18.311</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Total experiment output (Gb)</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>18</v>
+      </c>
+      <c r="C11" t="n">
+        <v>37.469</v>
+      </c>
+      <c r="D11" t="n">
         <v>147.084</v>
       </c>
-      <c r="E10" t="n">
-        <v>78.27416666666667</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E11" t="n">
+        <v>78.274</v>
+      </c>
+      <c r="F11" t="n">
         <v>69.619</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G11" t="n">
         <v>107.516</v>
       </c>
-      <c r="H10" t="n">
-        <v>27.63260242422516</v>
+      <c r="H11" t="n">
+        <v>26.854</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Flow Cells</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Active pore AUC</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>20</v>
+      </c>
+      <c r="C12" t="n">
+        <v>65544</v>
+      </c>
+      <c r="D12" t="n">
+        <v>168727</v>
+      </c>
+      <c r="E12" t="n">
+        <v>114599</v>
+      </c>
+      <c r="F12" t="n">
+        <v>110974</v>
+      </c>
+      <c r="G12" t="n">
+        <v>110586</v>
+      </c>
+      <c r="H12" t="n">
+        <v>26638.35</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>1</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Starting pore occupancy</t>
+        </is>
       </c>
       <c r="B13" t="n">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="C13" t="n">
+        <v>90.508</v>
+      </c>
+      <c r="D13" t="n">
+        <v>98.44499999999999</v>
+      </c>
+      <c r="E13" t="n">
+        <v>96.194</v>
+      </c>
+      <c r="F13" t="n">
+        <v>96.622</v>
+      </c>
+      <c r="G13" t="n">
+        <v>94.41800000000001</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.948</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>2</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Average pore occupancy</t>
+        </is>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="C14" t="n">
+        <v>83.11799999999999</v>
+      </c>
+      <c r="D14" t="n">
+        <v>96.843</v>
+      </c>
+      <c r="E14" t="n">
+        <v>93.687</v>
+      </c>
+      <c r="F14" t="n">
+        <v>94.965</v>
+      </c>
+      <c r="G14" t="n">
+        <v>83.11799999999999</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.405</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Passed modal Q score</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>MinKNOW Version</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Failed modal Q score</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>Starting translocation speed</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Average translocation speed</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Starting median Q score</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Average median Q score</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Passed bases (Gb)</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Failed bases (Gb)</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Percentage passed bases</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>20</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Flow Cells</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>MinKNOW Version</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
           <t>22.10.7</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B30" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1621,7 +2590,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1687,7 +2656,7 @@
         <v>29.09</v>
       </c>
       <c r="E2" t="n">
-        <v>24.36210526315789</v>
+        <v>24.362</v>
       </c>
       <c r="F2" t="n">
         <v>24.55</v>
@@ -1696,7 +2665,7 @@
         <v>24.68</v>
       </c>
       <c r="H2" t="n">
-        <v>3.21251991597349</v>
+        <v>3.127</v>
       </c>
     </row>
     <row r="3">
@@ -1715,7 +2684,7 @@
         <v>130.926</v>
       </c>
       <c r="E3" t="n">
-        <v>78.64736842105263</v>
+        <v>78.64700000000001</v>
       </c>
       <c r="F3" t="n">
         <v>88.035</v>
@@ -1724,7 +2693,7 @@
         <v>88.035</v>
       </c>
       <c r="H3" t="n">
-        <v>36.75222034443108</v>
+        <v>35.772</v>
       </c>
     </row>
     <row r="4">
@@ -1743,7 +2712,7 @@
         <v>13.256</v>
       </c>
       <c r="E4" t="n">
-        <v>6.796263157894737</v>
+        <v>6.796</v>
       </c>
       <c r="F4" t="n">
         <v>6.619</v>
@@ -1752,7 +2721,7 @@
         <v>10.406</v>
       </c>
       <c r="H4" t="n">
-        <v>3.33001811543463</v>
+        <v>3.241</v>
       </c>
     </row>
     <row r="5">
@@ -1771,7 +2740,7 @@
         <v>7883</v>
       </c>
       <c r="E5" t="n">
-        <v>5827.105263157895</v>
+        <v>5827.105</v>
       </c>
       <c r="F5" t="n">
         <v>6210</v>
@@ -1780,125 +2749,125 @@
         <v>6077</v>
       </c>
       <c r="H5" t="n">
-        <v>1427.635142259816</v>
+        <v>1389.558</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Platform QC active pores</t>
+          <t>Average active pores</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>3275</v>
+        <v>855.2</v>
       </c>
       <c r="D6" t="n">
-        <v>8468</v>
+        <v>4290.045</v>
       </c>
       <c r="E6" t="n">
-        <v>6661.894736842105</v>
+        <v>2954.293</v>
       </c>
       <c r="F6" t="n">
-        <v>7229</v>
+        <v>3312.273</v>
       </c>
       <c r="G6" t="n">
-        <v>6511</v>
+        <v>2964.6</v>
       </c>
       <c r="H6" t="n">
-        <v>1435.579708485462</v>
+        <v>997.537</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Pore difference</t>
+          <t>Platform QC active pores</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>19</v>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>3275</v>
       </c>
       <c r="D7" t="n">
-        <v>3448</v>
+        <v>8468</v>
       </c>
       <c r="E7" t="n">
-        <v>856.2631578947369</v>
+        <v>6661.895</v>
       </c>
       <c r="F7" t="n">
-        <v>585</v>
+        <v>7229</v>
       </c>
       <c r="G7" t="n">
-        <v>1023</v>
+        <v>6511</v>
       </c>
       <c r="H7" t="n">
-        <v>894.1986382668912</v>
+        <v>1397.291</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Flow cells per experiment</t>
+          <t>Pore difference</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>3448</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>856.263</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>585</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>1023</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>870.349</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Flow cell output (Gb)</t>
+          <t>Flow cells per experiment</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>11.326</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>130.926</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>78.64736842105263</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>88.035</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>11.326</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>36.75222034443108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Total experiment output (Gb)</t>
+          <t>Flow cell output (Gb)</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1911,57 +2880,421 @@
         <v>130.926</v>
       </c>
       <c r="E10" t="n">
-        <v>78.64736842105263</v>
+        <v>78.64700000000001</v>
       </c>
       <c r="F10" t="n">
         <v>88.035</v>
       </c>
       <c r="G10" t="n">
+        <v>11.326</v>
+      </c>
+      <c r="H10" t="n">
+        <v>35.772</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Total experiment output (Gb)</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>19</v>
+      </c>
+      <c r="C11" t="n">
+        <v>11.326</v>
+      </c>
+      <c r="D11" t="n">
+        <v>130.926</v>
+      </c>
+      <c r="E11" t="n">
+        <v>78.64700000000001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>88.035</v>
+      </c>
+      <c r="G11" t="n">
         <v>84.496</v>
       </c>
-      <c r="H10" t="n">
-        <v>36.75222034443108</v>
+      <c r="H11" t="n">
+        <v>35.772</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Flow Cells</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Active pore AUC</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>19</v>
+      </c>
+      <c r="C12" t="n">
+        <v>25656</v>
+      </c>
+      <c r="D12" t="n">
+        <v>188762</v>
+      </c>
+      <c r="E12" t="n">
+        <v>113798.737</v>
+      </c>
+      <c r="F12" t="n">
+        <v>133407</v>
+      </c>
+      <c r="G12" t="n">
+        <v>133407</v>
+      </c>
+      <c r="H12" t="n">
+        <v>48910.689</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>1</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Starting pore occupancy</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>19</v>
       </c>
+      <c r="C13" t="n">
+        <v>61.897</v>
+      </c>
+      <c r="D13" t="n">
+        <v>97.288</v>
+      </c>
+      <c r="E13" t="n">
+        <v>91.753</v>
+      </c>
+      <c r="F13" t="n">
+        <v>95.033</v>
+      </c>
+      <c r="G13" t="n">
+        <v>93.601</v>
+      </c>
+      <c r="H13" t="n">
+        <v>9.019</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Average pore occupancy</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>19</v>
+      </c>
+      <c r="C14" t="n">
+        <v>35.576</v>
+      </c>
+      <c r="D14" t="n">
+        <v>97.04900000000001</v>
+      </c>
+      <c r="E14" t="n">
+        <v>87.34999999999999</v>
+      </c>
+      <c r="F14" t="n">
+        <v>94.57899999999999</v>
+      </c>
+      <c r="G14" t="n">
+        <v>93.087</v>
+      </c>
+      <c r="H14" t="n">
+        <v>15.708</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>MinKNOW Version</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Passed modal Q score</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>19</v>
+      </c>
+      <c r="C15" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="D15" t="n">
+        <v>14.15</v>
+      </c>
+      <c r="E15" t="n">
+        <v>13.424</v>
+      </c>
+      <c r="F15" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="G15" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.363</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>Failed modal Q score</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>19</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="D16" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4.739</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="G16" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.296</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Starting translocation speed</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>19</v>
+      </c>
+      <c r="C17" t="n">
+        <v>388.586</v>
+      </c>
+      <c r="D17" t="n">
+        <v>403.662</v>
+      </c>
+      <c r="E17" t="n">
+        <v>398.241</v>
+      </c>
+      <c r="F17" t="n">
+        <v>398.772</v>
+      </c>
+      <c r="G17" t="n">
+        <v>399.133</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.772</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Average translocation speed</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>19</v>
+      </c>
+      <c r="C18" t="n">
+        <v>378.257</v>
+      </c>
+      <c r="D18" t="n">
+        <v>396.553</v>
+      </c>
+      <c r="E18" t="n">
+        <v>389.024</v>
+      </c>
+      <c r="F18" t="n">
+        <v>390.99</v>
+      </c>
+      <c r="G18" t="n">
+        <v>395.786</v>
+      </c>
+      <c r="H18" t="n">
+        <v>6.128</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Starting median Q score</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>19</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4.893</v>
+      </c>
+      <c r="D19" t="n">
+        <v>12.95</v>
+      </c>
+      <c r="E19" t="n">
+        <v>10.705</v>
+      </c>
+      <c r="F19" t="n">
+        <v>12.017</v>
+      </c>
+      <c r="G19" t="n">
+        <v>6.037</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.459</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Average median Q score</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5.733</v>
+      </c>
+      <c r="D20" t="n">
+        <v>12.751</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10.623</v>
+      </c>
+      <c r="F20" t="n">
+        <v>11.568</v>
+      </c>
+      <c r="G20" t="n">
+        <v>7.973</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.035</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Passed bases (Gb)</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6.352</v>
+      </c>
+      <c r="D21" t="n">
+        <v>122.254</v>
+      </c>
+      <c r="E21" t="n">
+        <v>69.825</v>
+      </c>
+      <c r="F21" t="n">
+        <v>79.15900000000001</v>
+      </c>
+      <c r="G21" t="n">
+        <v>77.17700000000001</v>
+      </c>
+      <c r="H21" t="n">
+        <v>34.006</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Failed bases (Gb)</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>19</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.403</v>
+      </c>
+      <c r="D22" t="n">
+        <v>17.894</v>
+      </c>
+      <c r="E22" t="n">
+        <v>8.615</v>
+      </c>
+      <c r="F22" t="n">
+        <v>8.286</v>
+      </c>
+      <c r="G22" t="n">
+        <v>10.193</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.628</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Percentage passed bases</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>19</v>
+      </c>
+      <c r="C23" t="n">
+        <v>57.401</v>
+      </c>
+      <c r="D23" t="n">
+        <v>93.533</v>
+      </c>
+      <c r="E23" t="n">
+        <v>86.336</v>
+      </c>
+      <c r="F23" t="n">
+        <v>89.38500000000001</v>
+      </c>
+      <c r="G23" t="n">
+        <v>88.334</v>
+      </c>
+      <c r="H23" t="n">
+        <v>9.083</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Flow Cells</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>MinKNOW Version</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>24.06.14</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B29" t="n">
         <v>19</v>
       </c>
     </row>
@@ -2780,7 +4113,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2855,7 +4188,7 @@
         <v>27.01</v>
       </c>
       <c r="H2" t="n">
-        <v>2.004631479454778</v>
+        <v>1.954</v>
       </c>
     </row>
     <row r="3">
@@ -2874,16 +4207,16 @@
         <v>171.94</v>
       </c>
       <c r="E3" t="n">
-        <v>89.68040000000001</v>
+        <v>89.68000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>85.94399999999999</v>
+        <v>85.944</v>
       </c>
       <c r="G3" t="n">
         <v>125.76</v>
       </c>
       <c r="H3" t="n">
-        <v>48.5142004033762</v>
+        <v>47.286</v>
       </c>
     </row>
     <row r="4">
@@ -2902,7 +4235,7 @@
         <v>12.671</v>
       </c>
       <c r="E4" t="n">
-        <v>5.8064</v>
+        <v>5.806</v>
       </c>
       <c r="F4" t="n">
         <v>5.601</v>
@@ -2911,7 +4244,7 @@
         <v>7.697</v>
       </c>
       <c r="H4" t="n">
-        <v>3.220798845007244</v>
+        <v>3.139</v>
       </c>
     </row>
     <row r="5">
@@ -2939,129 +4272,129 @@
         <v>6810</v>
       </c>
       <c r="H5" t="n">
-        <v>1564.634050875122</v>
+        <v>1525.017</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Platform QC active pores</t>
+          <t>Average active pores</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>20</v>
       </c>
       <c r="C6" t="n">
-        <v>5899</v>
+        <v>857.609</v>
       </c>
       <c r="D6" t="n">
-        <v>8432</v>
+        <v>4609.373</v>
       </c>
       <c r="E6" t="n">
-        <v>7204.25</v>
+        <v>2657.604</v>
       </c>
       <c r="F6" t="n">
-        <v>7308.5</v>
+        <v>2891.69</v>
       </c>
       <c r="G6" t="n">
-        <v>6591</v>
+        <v>3050.593</v>
       </c>
       <c r="H6" t="n">
-        <v>678.8019535219851</v>
+        <v>1141.989</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Pore difference</t>
+          <t>Platform QC active pores</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>304</v>
+        <v>5899</v>
       </c>
       <c r="D7" t="n">
-        <v>4032</v>
+        <v>8432</v>
       </c>
       <c r="E7" t="n">
-        <v>1225.6</v>
+        <v>7204.25</v>
       </c>
       <c r="F7" t="n">
-        <v>626</v>
+        <v>7308.5</v>
       </c>
       <c r="G7" t="n">
-        <v>3149</v>
+        <v>6591</v>
       </c>
       <c r="H7" t="n">
-        <v>1228.815064669169</v>
+        <v>661.614</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Flow cells per experiment</t>
+          <t>Pore difference</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>304</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>4032</v>
       </c>
       <c r="E8" t="n">
-        <v>1.052631578947368</v>
+        <v>1225.6</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>626</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>3149</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2294157338705618</v>
+        <v>1197.701</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Flow cell output (Gb)</t>
+          <t>Flow cells per experiment</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>5.713</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>171.94</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>89.68040000000001</v>
+        <v>1.053</v>
       </c>
       <c r="F9" t="n">
-        <v>85.94399999999999</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>36.492</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>48.5142004033762</v>
+        <v>0.223</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Total experiment output (Gb)</t>
+          <t>Flow cell output (Gb)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="n">
         <v>5.713</v>
@@ -3070,65 +4403,429 @@
         <v>171.94</v>
       </c>
       <c r="E10" t="n">
-        <v>94.40042105263157</v>
+        <v>89.68000000000001</v>
       </c>
       <c r="F10" t="n">
+        <v>85.944</v>
+      </c>
+      <c r="G10" t="n">
+        <v>36.492</v>
+      </c>
+      <c r="H10" t="n">
+        <v>47.286</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Total experiment output (Gb)</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>19</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5.713</v>
+      </c>
+      <c r="D11" t="n">
+        <v>171.94</v>
+      </c>
+      <c r="E11" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="F11" t="n">
         <v>87.544</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G11" t="n">
         <v>112.993</v>
       </c>
-      <c r="H10" t="n">
-        <v>46.48899620617023</v>
+      <c r="H11" t="n">
+        <v>45.249</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Flow Cells</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Active pore AUC</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>20</v>
+      </c>
+      <c r="C12" t="n">
+        <v>39450</v>
+      </c>
+      <c r="D12" t="n">
+        <v>271953</v>
+      </c>
+      <c r="E12" t="n">
+        <v>133118.15</v>
+      </c>
+      <c r="F12" t="n">
+        <v>130191.5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>179985</v>
+      </c>
+      <c r="H12" t="n">
+        <v>67529.807</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>1</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Starting pore occupancy</t>
+        </is>
       </c>
       <c r="B13" t="n">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="C13" t="n">
+        <v>51.77</v>
+      </c>
+      <c r="D13" t="n">
+        <v>97.709</v>
+      </c>
+      <c r="E13" t="n">
+        <v>92.568</v>
+      </c>
+      <c r="F13" t="n">
+        <v>96.224</v>
+      </c>
+      <c r="G13" t="n">
+        <v>96.575</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10.066</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>2</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Average pore occupancy</t>
+        </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="C14" t="n">
+        <v>7.051</v>
+      </c>
+      <c r="D14" t="n">
+        <v>98.08499999999999</v>
+      </c>
+      <c r="E14" t="n">
+        <v>86.41200000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>92.86</v>
+      </c>
+      <c r="G14" t="n">
+        <v>95.042</v>
+      </c>
+      <c r="H14" t="n">
+        <v>19.708</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Passed modal Q score</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>20</v>
+      </c>
+      <c r="C15" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="D15" t="n">
+        <v>14.45</v>
+      </c>
+      <c r="E15" t="n">
+        <v>13.59</v>
+      </c>
+      <c r="F15" t="n">
+        <v>13.85</v>
+      </c>
+      <c r="G15" t="n">
+        <v>13.85</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.338</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>MinKNOW Version</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Failed modal Q score</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>20</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="D16" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.258</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>Starting translocation speed</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>20</v>
+      </c>
+      <c r="C17" t="n">
+        <v>392.862</v>
+      </c>
+      <c r="D17" t="n">
+        <v>402.922</v>
+      </c>
+      <c r="E17" t="n">
+        <v>397.697</v>
+      </c>
+      <c r="F17" t="n">
+        <v>397.696</v>
+      </c>
+      <c r="G17" t="n">
+        <v>395.457</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.456</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Average translocation speed</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>20</v>
+      </c>
+      <c r="C18" t="n">
+        <v>339.026</v>
+      </c>
+      <c r="D18" t="n">
+        <v>397.305</v>
+      </c>
+      <c r="E18" t="n">
+        <v>387.186</v>
+      </c>
+      <c r="F18" t="n">
+        <v>389.84</v>
+      </c>
+      <c r="G18" t="n">
+        <v>388.434</v>
+      </c>
+      <c r="H18" t="n">
+        <v>11.951</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Starting median Q score</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>20</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6.317</v>
+      </c>
+      <c r="D19" t="n">
+        <v>13.436</v>
+      </c>
+      <c r="E19" t="n">
+        <v>12.223</v>
+      </c>
+      <c r="F19" t="n">
+        <v>12.692</v>
+      </c>
+      <c r="G19" t="n">
+        <v>12.648</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.517</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Average median Q score</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>20</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4.562</v>
+      </c>
+      <c r="D20" t="n">
+        <v>13.276</v>
+      </c>
+      <c r="E20" t="n">
+        <v>11.717</v>
+      </c>
+      <c r="F20" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="G20" t="n">
+        <v>12.401</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.882</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Passed bases (Gb)</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.614</v>
+      </c>
+      <c r="D21" t="n">
+        <v>161.249</v>
+      </c>
+      <c r="E21" t="n">
+        <v>83.654</v>
+      </c>
+      <c r="F21" t="n">
+        <v>78.92700000000001</v>
+      </c>
+      <c r="G21" t="n">
+        <v>115.967</v>
+      </c>
+      <c r="H21" t="n">
+        <v>45.375</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Failed bases (Gb)</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.031</v>
+      </c>
+      <c r="D22" t="n">
+        <v>13.358</v>
+      </c>
+      <c r="E22" t="n">
+        <v>7.171</v>
+      </c>
+      <c r="F22" t="n">
+        <v>7.288</v>
+      </c>
+      <c r="G22" t="n">
+        <v>10.632</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.401</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Percentage passed bases</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>20</v>
+      </c>
+      <c r="C23" t="n">
+        <v>31.309</v>
+      </c>
+      <c r="D23" t="n">
+        <v>95.41</v>
+      </c>
+      <c r="E23" t="n">
+        <v>88.861</v>
+      </c>
+      <c r="F23" t="n">
+        <v>92.38800000000001</v>
+      </c>
+      <c r="G23" t="n">
+        <v>91.602</v>
+      </c>
+      <c r="H23" t="n">
+        <v>13.432</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Flow Cells</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>MinKNOW Version</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
           <t>24.06.14</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B30" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5229,7 +6926,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5295,7 +6992,7 @@
         <v>37.07</v>
       </c>
       <c r="E2" t="n">
-        <v>30.75526315789474</v>
+        <v>30.755</v>
       </c>
       <c r="F2" t="n">
         <v>31.11</v>
@@ -5304,7 +7001,7 @@
         <v>36.97</v>
       </c>
       <c r="H2" t="n">
-        <v>4.410732325716763</v>
+        <v>4.293</v>
       </c>
     </row>
     <row r="3">
@@ -5323,7 +7020,7 @@
         <v>118.875</v>
       </c>
       <c r="E3" t="n">
-        <v>62.23926315789473</v>
+        <v>62.239</v>
       </c>
       <c r="F3" t="n">
         <v>65.161</v>
@@ -5332,7 +7029,7 @@
         <v>5.955</v>
       </c>
       <c r="H3" t="n">
-        <v>30.54299177815156</v>
+        <v>29.728</v>
       </c>
     </row>
     <row r="4">
@@ -5351,7 +7048,7 @@
         <v>7.063</v>
       </c>
       <c r="E4" t="n">
-        <v>3.390578947368421</v>
+        <v>3.391</v>
       </c>
       <c r="F4" t="n">
         <v>3.571</v>
@@ -5360,7 +7057,7 @@
         <v>0.267</v>
       </c>
       <c r="H4" t="n">
-        <v>1.659825637288095</v>
+        <v>1.616</v>
       </c>
     </row>
     <row r="5">
@@ -5379,7 +7076,7 @@
         <v>9018</v>
       </c>
       <c r="E5" t="n">
-        <v>7147.894736842105</v>
+        <v>7147.895</v>
       </c>
       <c r="F5" t="n">
         <v>7144</v>
@@ -5388,125 +7085,125 @@
         <v>9018</v>
       </c>
       <c r="H5" t="n">
-        <v>1248.195314788374</v>
+        <v>1214.904</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Platform QC active pores</t>
+          <t>Average active pores</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>3219</v>
+        <v>678.682</v>
       </c>
       <c r="D6" t="n">
-        <v>7503</v>
+        <v>8631.5</v>
       </c>
       <c r="E6" t="n">
-        <v>6442.428571428572</v>
+        <v>2887.453</v>
       </c>
       <c r="F6" t="n">
-        <v>7257</v>
+        <v>2611.696</v>
       </c>
       <c r="G6" t="n">
-        <v>3219</v>
+        <v>8631.5</v>
       </c>
       <c r="H6" t="n">
-        <v>1532.280855146216</v>
+        <v>1637.322</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Pore difference</t>
+          <t>Platform QC active pores</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>258</v>
+        <v>3219</v>
       </c>
       <c r="D7" t="n">
-        <v>3264</v>
+        <v>7503</v>
       </c>
       <c r="E7" t="n">
-        <v>1269.857142857143</v>
+        <v>6442.429</v>
       </c>
       <c r="F7" t="n">
-        <v>631</v>
+        <v>7257</v>
       </c>
       <c r="G7" t="n">
-        <v>3112</v>
+        <v>3219</v>
       </c>
       <c r="H7" t="n">
-        <v>1323.383974082029</v>
+        <v>1418.616</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Flow cells per experiment</t>
+          <t>Pore difference</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>258</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>3264</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>1269.857</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>631</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>3112</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1225.215</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Flow cell output (Gb)</t>
+          <t>Flow cells per experiment</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>5.955</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>118.875</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>62.23926315789473</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>65.161</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>78.488</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>30.54299177815156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Total experiment output (Gb)</t>
+          <t>Flow cell output (Gb)</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -5519,7 +7216,7 @@
         <v>118.875</v>
       </c>
       <c r="E10" t="n">
-        <v>62.23926315789473</v>
+        <v>62.239</v>
       </c>
       <c r="F10" t="n">
         <v>65.161</v>
@@ -5528,58 +7225,374 @@
         <v>78.488</v>
       </c>
       <c r="H10" t="n">
-        <v>30.54299177815156</v>
+        <v>29.728</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Total experiment output (Gb)</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>19</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5.955</v>
+      </c>
+      <c r="D11" t="n">
+        <v>118.875</v>
+      </c>
+      <c r="E11" t="n">
+        <v>62.239</v>
+      </c>
+      <c r="F11" t="n">
+        <v>65.161</v>
+      </c>
+      <c r="G11" t="n">
+        <v>78.488</v>
+      </c>
+      <c r="H11" t="n">
+        <v>29.728</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Flow Cells</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Active pore AUC</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>19</v>
+      </c>
+      <c r="C12" t="n">
+        <v>17263</v>
+      </c>
+      <c r="D12" t="n">
+        <v>199644</v>
+      </c>
+      <c r="E12" t="n">
+        <v>98961.842</v>
+      </c>
+      <c r="F12" t="n">
+        <v>103654</v>
+      </c>
+      <c r="G12" t="n">
+        <v>17263</v>
+      </c>
+      <c r="H12" t="n">
+        <v>46435.422</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>1</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Starting pore occupancy</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>19</v>
       </c>
+      <c r="C13" t="n">
+        <v>80.173</v>
+      </c>
+      <c r="D13" t="n">
+        <v>97.36</v>
+      </c>
+      <c r="E13" t="n">
+        <v>92.40600000000001</v>
+      </c>
+      <c r="F13" t="n">
+        <v>93.083</v>
+      </c>
+      <c r="G13" t="n">
+        <v>90.527</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4.248</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Average pore occupancy</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>19</v>
+      </c>
+      <c r="C14" t="n">
+        <v>80.68899999999999</v>
+      </c>
+      <c r="D14" t="n">
+        <v>97.279</v>
+      </c>
+      <c r="E14" t="n">
+        <v>91.66500000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>92.515</v>
+      </c>
+      <c r="G14" t="n">
+        <v>97.279</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4.107</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>MinKNOW Version</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Passed modal Q score</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>22.10.7</t>
+          <t>Failed modal Q score</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>Starting translocation speed</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>397.981</v>
+      </c>
+      <c r="D17" t="n">
+        <v>399.384</v>
+      </c>
+      <c r="E17" t="n">
+        <v>398.682</v>
+      </c>
+      <c r="F17" t="n">
+        <v>398.682</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.702</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Average translocation speed</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>392.863</v>
+      </c>
+      <c r="D18" t="n">
+        <v>396.092</v>
+      </c>
+      <c r="E18" t="n">
+        <v>394.477</v>
+      </c>
+      <c r="F18" t="n">
+        <v>394.477</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.614</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Starting median Q score</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="n">
+        <v>11.677</v>
+      </c>
+      <c r="D19" t="n">
+        <v>11.968</v>
+      </c>
+      <c r="E19" t="n">
+        <v>11.822</v>
+      </c>
+      <c r="F19" t="n">
+        <v>11.822</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.146</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Average median Q score</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="n">
+        <v>11.607</v>
+      </c>
+      <c r="D20" t="n">
+        <v>11.645</v>
+      </c>
+      <c r="E20" t="n">
+        <v>11.626</v>
+      </c>
+      <c r="F20" t="n">
+        <v>11.626</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.019</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Passed bases (Gb)</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>100.527</v>
+      </c>
+      <c r="E21" t="n">
+        <v>13.078</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>31.268</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Failed bases (Gb)</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>13</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>14.293</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.977</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4.672</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Percentage passed bases</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>13</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>87.55200000000001</v>
+      </c>
+      <c r="E23" t="n">
+        <v>13.342</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>31.291</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Flow Cells</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>MinKNOW Version</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>22.10.7</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
           <t>23.11.7</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B30" t="n">
         <v>6</v>
       </c>
     </row>
@@ -5626,6 +7639,158 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -6047,6 +8212,196 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -6430,13 +8785,108 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6502,7 +8952,7 @@
         <v>28.15</v>
       </c>
       <c r="E2" t="n">
-        <v>24.57631578947368</v>
+        <v>24.576</v>
       </c>
       <c r="F2" t="n">
         <v>24.78</v>
@@ -6511,7 +8961,7 @@
         <v>24.36</v>
       </c>
       <c r="H2" t="n">
-        <v>2.745602970663205</v>
+        <v>2.672</v>
       </c>
     </row>
     <row r="3">
@@ -6530,7 +8980,7 @@
         <v>125.498</v>
       </c>
       <c r="E3" t="n">
-        <v>81.94505263157895</v>
+        <v>81.94499999999999</v>
       </c>
       <c r="F3" t="n">
         <v>85.447</v>
@@ -6539,7 +8989,7 @@
         <v>109.059</v>
       </c>
       <c r="H3" t="n">
-        <v>28.48753946216112</v>
+        <v>27.728</v>
       </c>
     </row>
     <row r="4">
@@ -6558,7 +9008,7 @@
         <v>7.896</v>
       </c>
       <c r="E4" t="n">
-        <v>4.738421052631579</v>
+        <v>4.738</v>
       </c>
       <c r="F4" t="n">
         <v>4.484</v>
@@ -6567,7 +9017,7 @@
         <v>5.859</v>
       </c>
       <c r="H4" t="n">
-        <v>1.599011406942478</v>
+        <v>1.556</v>
       </c>
     </row>
     <row r="5">
@@ -6586,7 +9036,7 @@
         <v>7740</v>
       </c>
       <c r="E5" t="n">
-        <v>6222.157894736843</v>
+        <v>6222.158</v>
       </c>
       <c r="F5" t="n">
         <v>6450</v>
@@ -6595,125 +9045,125 @@
         <v>5979</v>
       </c>
       <c r="H5" t="n">
-        <v>973.6386657595251</v>
+        <v>947.67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Platform QC active pores</t>
+          <t>Average active pores</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>4028</v>
+        <v>1087.391</v>
       </c>
       <c r="D6" t="n">
-        <v>8377</v>
+        <v>4297</v>
       </c>
       <c r="E6" t="n">
-        <v>7020.263157894737</v>
+        <v>2673.091</v>
       </c>
       <c r="F6" t="n">
-        <v>7186</v>
+        <v>2735.133</v>
       </c>
       <c r="G6" t="n">
-        <v>7905</v>
+        <v>3409.378</v>
       </c>
       <c r="H6" t="n">
-        <v>1122.775768753755</v>
+        <v>919.135</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Pore difference</t>
+          <t>Platform QC active pores</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>19</v>
       </c>
       <c r="C7" t="n">
-        <v>49</v>
+        <v>4028</v>
       </c>
       <c r="D7" t="n">
-        <v>2606</v>
+        <v>8377</v>
       </c>
       <c r="E7" t="n">
-        <v>803.2631578947369</v>
+        <v>7020.263</v>
       </c>
       <c r="F7" t="n">
-        <v>697</v>
+        <v>7186</v>
       </c>
       <c r="G7" t="n">
-        <v>855</v>
+        <v>7905</v>
       </c>
       <c r="H7" t="n">
-        <v>637.5440587916922</v>
+        <v>1092.83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Flow cells per experiment</t>
+          <t>Pore difference</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>2606</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>803.263</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>697</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>855</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>620.54</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Flow cell output (Gb)</t>
+          <t>Flow cells per experiment</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>26.594</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>125.498</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>81.94505263157895</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>85.447</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>72.666</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>28.48753946216112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Total experiment output (Gb)</t>
+          <t>Flow cell output (Gb)</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -6726,57 +9176,421 @@
         <v>125.498</v>
       </c>
       <c r="E10" t="n">
-        <v>81.94505263157895</v>
+        <v>81.94499999999999</v>
       </c>
       <c r="F10" t="n">
         <v>85.447</v>
       </c>
       <c r="G10" t="n">
+        <v>72.666</v>
+      </c>
+      <c r="H10" t="n">
+        <v>27.728</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Total experiment output (Gb)</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>19</v>
+      </c>
+      <c r="C11" t="n">
+        <v>26.594</v>
+      </c>
+      <c r="D11" t="n">
+        <v>125.498</v>
+      </c>
+      <c r="E11" t="n">
+        <v>81.94499999999999</v>
+      </c>
+      <c r="F11" t="n">
+        <v>85.447</v>
+      </c>
+      <c r="G11" t="n">
         <v>88.35899999999999</v>
       </c>
-      <c r="H10" t="n">
-        <v>28.48753946216112</v>
+      <c r="H11" t="n">
+        <v>27.728</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Flow Cells</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Active pore AUC</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>19</v>
+      </c>
+      <c r="C12" t="n">
+        <v>50020</v>
+      </c>
+      <c r="D12" t="n">
+        <v>184771</v>
+      </c>
+      <c r="E12" t="n">
+        <v>118808.368</v>
+      </c>
+      <c r="F12" t="n">
+        <v>123081</v>
+      </c>
+      <c r="G12" t="n">
+        <v>153422</v>
+      </c>
+      <c r="H12" t="n">
+        <v>39161.387</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>1</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Starting pore occupancy</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>19</v>
       </c>
+      <c r="C13" t="n">
+        <v>84.953</v>
+      </c>
+      <c r="D13" t="n">
+        <v>97.961</v>
+      </c>
+      <c r="E13" t="n">
+        <v>93.646</v>
+      </c>
+      <c r="F13" t="n">
+        <v>95.703</v>
+      </c>
+      <c r="G13" t="n">
+        <v>97.961</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4.413</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Average pore occupancy</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>19</v>
+      </c>
+      <c r="C14" t="n">
+        <v>46.08</v>
+      </c>
+      <c r="D14" t="n">
+        <v>97.797</v>
+      </c>
+      <c r="E14" t="n">
+        <v>87.649</v>
+      </c>
+      <c r="F14" t="n">
+        <v>92.98099999999999</v>
+      </c>
+      <c r="G14" t="n">
+        <v>97.797</v>
+      </c>
+      <c r="H14" t="n">
+        <v>13.461</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>MinKNOW Version</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Passed modal Q score</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>19</v>
+      </c>
+      <c r="C15" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="D15" t="n">
+        <v>14.35</v>
+      </c>
+      <c r="E15" t="n">
+        <v>13.076</v>
+      </c>
+      <c r="F15" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="G15" t="n">
+        <v>13.05</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.018</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>Failed modal Q score</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>19</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="D16" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6.229</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.851</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Starting translocation speed</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>19</v>
+      </c>
+      <c r="C17" t="n">
+        <v>380.656</v>
+      </c>
+      <c r="D17" t="n">
+        <v>404.712</v>
+      </c>
+      <c r="E17" t="n">
+        <v>397.789</v>
+      </c>
+      <c r="F17" t="n">
+        <v>398.219</v>
+      </c>
+      <c r="G17" t="n">
+        <v>404.656</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4.894</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Average translocation speed</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>19</v>
+      </c>
+      <c r="C18" t="n">
+        <v>367.634</v>
+      </c>
+      <c r="D18" t="n">
+        <v>400.441</v>
+      </c>
+      <c r="E18" t="n">
+        <v>385.889</v>
+      </c>
+      <c r="F18" t="n">
+        <v>386.689</v>
+      </c>
+      <c r="G18" t="n">
+        <v>391.317</v>
+      </c>
+      <c r="H18" t="n">
+        <v>8.941000000000001</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Starting median Q score</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>19</v>
+      </c>
+      <c r="C19" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="D19" t="n">
+        <v>13.281</v>
+      </c>
+      <c r="E19" t="n">
+        <v>12.057</v>
+      </c>
+      <c r="F19" t="n">
+        <v>12.226</v>
+      </c>
+      <c r="G19" t="n">
+        <v>13.281</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.931</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Average median Q score</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="n">
+        <v>6.342</v>
+      </c>
+      <c r="D20" t="n">
+        <v>13.054</v>
+      </c>
+      <c r="E20" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="F20" t="n">
+        <v>11.375</v>
+      </c>
+      <c r="G20" t="n">
+        <v>13.054</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Passed bases (Gb)</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>20.405</v>
+      </c>
+      <c r="D21" t="n">
+        <v>120.243</v>
+      </c>
+      <c r="E21" t="n">
+        <v>73.378</v>
+      </c>
+      <c r="F21" t="n">
+        <v>79.084</v>
+      </c>
+      <c r="G21" t="n">
+        <v>99.062</v>
+      </c>
+      <c r="H21" t="n">
+        <v>28.539</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Failed bases (Gb)</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>19</v>
+      </c>
+      <c r="C22" t="n">
+        <v>5.764</v>
+      </c>
+      <c r="D22" t="n">
+        <v>20.129</v>
+      </c>
+      <c r="E22" t="n">
+        <v>9.132</v>
+      </c>
+      <c r="F22" t="n">
+        <v>7.854</v>
+      </c>
+      <c r="G22" t="n">
+        <v>10.478</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.443</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Percentage passed bases</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>19</v>
+      </c>
+      <c r="C23" t="n">
+        <v>62.884</v>
+      </c>
+      <c r="D23" t="n">
+        <v>94.13500000000001</v>
+      </c>
+      <c r="E23" t="n">
+        <v>86.91800000000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>90.51600000000001</v>
+      </c>
+      <c r="G23" t="n">
+        <v>90.435</v>
+      </c>
+      <c r="H23" t="n">
+        <v>8.256</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Flow Cells</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>MinKNOW Version</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>24.02.19</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B29" t="n">
         <v>19</v>
       </c>
     </row>
